--- a/parser/test_csv_files/(no_category)farm_with_a_little_of_everything.xlsx
+++ b/parser/test_csv_files/(no_category)farm_with_a_little_of_everything.xlsx
@@ -616,7 +616,7 @@
     <t>Lamb broke a leg</t>
   </si>
   <si>
-    <t>Electricit</t>
+    <t>Electricity</t>
   </si>
   <si>
     <t>January electricity</t>
